--- a/final_project/basys_mario/Pictrans/map.xlsx
+++ b/final_project/basys_mario/Pictrans/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Logic-Design-Laborator\final_project\basys_mario\Pictrans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66BF96-88B4-4F40-AF57-AB19051FEB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C15DAE-A9F6-49AB-B632-07317CE96EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="62" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="62" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -3018,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
         <v>14</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
